--- a/storage/laporan-posisi-keuangan-2022.xlsx
+++ b/storage/laporan-posisi-keuangan-2022.xlsx
@@ -529,7 +529,7 @@
         <v>4687041</v>
       </c>
       <c r="D6">
-        <v>1244061.0</v>
+        <v>1244664.0</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -540,7 +540,7 @@
         <v>322013489</v>
       </c>
       <c r="D7">
-        <v>991692170.75</v>
+        <v>1005417842.75</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -573,7 +573,7 @@
         <v>3906195607</v>
       </c>
       <c r="D10">
-        <v>3952878244.75</v>
+        <v>3966604519.75</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -660,7 +660,7 @@
         <v>3906195607</v>
       </c>
       <c r="D19">
-        <v>3952878244.75</v>
+        <v>3966604519.75</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -751,7 +751,7 @@
         <v>3770272958</v>
       </c>
       <c r="D30">
-        <v>3815404120.0</v>
+        <v>3816671120.0</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -762,7 +762,7 @@
         <v>3770272958</v>
       </c>
       <c r="D31">
-        <v>3815404120.0</v>
+        <v>3816671120.0</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -773,7 +773,7 @@
         <v>3906195606</v>
       </c>
       <c r="D32">
-        <v>3952884964.0</v>
+        <v>3954151964.0</v>
       </c>
     </row>
   </sheetData>

--- a/storage/laporan-posisi-keuangan-2022.xlsx
+++ b/storage/laporan-posisi-keuangan-2022.xlsx
@@ -15,12 +15,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
   <si>
     <t>ASET</t>
   </si>
   <si>
     <t>U R A I A N</t>
+  </si>
+  <si>
+    <t>LAPORAN POSISI KEUANGAN</t>
   </si>
   <si>
     <t>DES 2021</t>
@@ -170,7 +173,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -181,6 +184,9 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
@@ -499,16 +505,24 @@
     <col min="4" max="4" width="25" customWidth="true" style="0"/>
   </cols>
   <sheetData>
+    <row r="2" spans="1:4">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+    </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -518,12 +532,12 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6">
         <v>4687041</v>
@@ -534,7 +548,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="B7" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7">
         <v>322013489</v>
@@ -545,7 +559,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="B8" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8">
         <v>4887807520</v>
@@ -556,7 +570,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="B9" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C9">
         <v>-1308312443</v>
@@ -567,7 +581,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="B10" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C10">
         <v>3906195607</v>
@@ -578,12 +592,12 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="B12" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C12">
         <v>40478000</v>
@@ -594,7 +608,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="B13" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C13">
         <v>-40478000</v>
@@ -605,7 +619,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="B14" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -616,12 +630,12 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="B16" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C16">
         <v>4316437323</v>
@@ -632,7 +646,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="B17" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C17">
         <v>-4316437323</v>
@@ -643,7 +657,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="B18" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -654,7 +668,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="B19" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C19">
         <v>3906195607</v>
@@ -664,23 +678,23 @@
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="4" t="s">
-        <v>4</v>
+      <c r="A20" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="B23" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C23">
         <v>3075060</v>
@@ -691,7 +705,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="B24" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C24">
         <v>132847588</v>
@@ -702,12 +716,12 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="B26" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -718,7 +732,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="B27" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C27">
         <v>135922648</v>
@@ -729,12 +743,12 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="B29" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -745,7 +759,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="B30" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C30">
         <v>3770272958</v>
@@ -756,7 +770,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="B31" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C31">
         <v>3770272958</v>
@@ -767,7 +781,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="B32" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C32">
         <v>3906195606</v>
@@ -780,6 +794,7 @@
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A2:D2"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/storage/laporan-posisi-keuangan-2022.xlsx
+++ b/storage/laporan-posisi-keuangan-2022.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="58">
   <si>
     <t>ASET</t>
   </si>
@@ -114,6 +114,81 @@
   </si>
   <si>
     <t>JUMLAH LIABILITAS DAN ASET NETO</t>
+  </si>
+  <si>
+    <t>4,687,041</t>
+  </si>
+  <si>
+    <t>1,244,061</t>
+  </si>
+  <si>
+    <t>322,013,489</t>
+  </si>
+  <si>
+    <t>991,692,171</t>
+  </si>
+  <si>
+    <t>4,887,807,520</t>
+  </si>
+  <si>
+    <t>4,342,256,513</t>
+  </si>
+  <si>
+    <t>-1,308,312,443</t>
+  </si>
+  <si>
+    <t>-1,382,314,500</t>
+  </si>
+  <si>
+    <t>3,906,195,607</t>
+  </si>
+  <si>
+    <t>3,952,878,245</t>
+  </si>
+  <si>
+    <t>40,478,000</t>
+  </si>
+  <si>
+    <t>-40,478,000</t>
+  </si>
+  <si>
+    <t>4,316,437,323</t>
+  </si>
+  <si>
+    <t>4,306,135,769</t>
+  </si>
+  <si>
+    <t>-4,316,437,323</t>
+  </si>
+  <si>
+    <t>-4,306,135,769</t>
+  </si>
+  <si>
+    <t>3,075,060</t>
+  </si>
+  <si>
+    <t>4,633,256</t>
+  </si>
+  <si>
+    <t>132,847,588</t>
+  </si>
+  <si>
+    <t>135,922,648</t>
+  </si>
+  <si>
+    <t>137,480,844</t>
+  </si>
+  <si>
+    <t>3,770,272,958</t>
+  </si>
+  <si>
+    <t>3,815,404,120</t>
+  </si>
+  <si>
+    <t>3,906,195,606</t>
+  </si>
+  <si>
+    <t>3,952,884,964</t>
   </si>
 </sst>
 </file>
@@ -539,55 +614,55 @@
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C6">
-        <v>4687041</v>
-      </c>
-      <c r="D6">
-        <v>1244664.0</v>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7">
-        <v>322013489</v>
-      </c>
-      <c r="D7">
-        <v>1005417842.75</v>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C8">
-        <v>4887807520</v>
-      </c>
-      <c r="D8">
-        <v>4342256513.0</v>
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C9">
-        <v>-1308312443</v>
-      </c>
-      <c r="D9">
-        <v>-1382314500.0</v>
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C10">
-        <v>3906195607</v>
-      </c>
-      <c r="D10">
-        <v>3966604519.75</v>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -599,22 +674,22 @@
       <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C12">
-        <v>40478000</v>
-      </c>
-      <c r="D12">
-        <v>40478000.0</v>
+      <c r="C12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="B13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C13">
-        <v>-40478000</v>
-      </c>
-      <c r="D13">
-        <v>-40478000.0</v>
+      <c r="C13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -625,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -637,22 +712,22 @@
       <c r="B16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C16">
-        <v>4316437323</v>
-      </c>
-      <c r="D16">
-        <v>4304868769.0</v>
+      <c r="C16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="B17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C17">
-        <v>-4316437323</v>
-      </c>
-      <c r="D17">
-        <v>-4304868769.0</v>
+      <c r="C17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -663,18 +738,18 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="B19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C19">
-        <v>3906195607</v>
-      </c>
-      <c r="D19">
-        <v>3966604519.75</v>
+      <c r="C19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -696,22 +771,22 @@
       <c r="B23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C23">
-        <v>3075060</v>
-      </c>
-      <c r="D23">
-        <v>4633256.0</v>
+      <c r="C23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="B24" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C24">
-        <v>132847588</v>
-      </c>
-      <c r="D24">
-        <v>132847588.0</v>
+      <c r="C24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -727,18 +802,18 @@
         <v>0</v>
       </c>
       <c r="D26">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="B27" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C27">
-        <v>135922648</v>
-      </c>
-      <c r="D27">
-        <v>137480844.0</v>
+      <c r="C27" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -754,40 +829,40 @@
         <v>0</v>
       </c>
       <c r="D29">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="B30" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C30">
-        <v>3770272958</v>
-      </c>
-      <c r="D30">
-        <v>3816671120.0</v>
+      <c r="C30" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="B31" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C31">
-        <v>3770272958</v>
-      </c>
-      <c r="D31">
-        <v>3816671120.0</v>
+      <c r="C31" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="B32" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C32">
-        <v>3906195606</v>
-      </c>
-      <c r="D32">
-        <v>3954151964.0</v>
+      <c r="C32" t="s">
+        <v>56</v>
+      </c>
+      <c r="D32" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/storage/laporan-posisi-keuangan-2022.xlsx
+++ b/storage/laporan-posisi-keuangan-2022.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="52">
   <si>
     <t>ASET</t>
   </si>
@@ -29,7 +29,7 @@
     <t>DES 2021</t>
   </si>
   <si>
-    <t>Jul 2022</t>
+    <t>Aug 2022</t>
   </si>
   <si>
     <t>LIABILITAS DAN ASET NETO</t>
@@ -125,9 +125,6 @@
     <t>322,013,489</t>
   </si>
   <si>
-    <t>991,692,171</t>
-  </si>
-  <si>
     <t>4,887,807,520</t>
   </si>
   <si>
@@ -137,15 +134,9 @@
     <t>-1,308,312,443</t>
   </si>
   <si>
-    <t>-1,382,314,500</t>
-  </si>
-  <si>
     <t>3,906,195,607</t>
   </si>
   <si>
-    <t>3,952,878,245</t>
-  </si>
-  <si>
     <t>40,478,000</t>
   </si>
   <si>
@@ -167,28 +158,19 @@
     <t>3,075,060</t>
   </si>
   <si>
-    <t>4,633,256</t>
-  </si>
-  <si>
     <t>132,847,588</t>
   </si>
   <si>
     <t>135,922,648</t>
   </si>
   <si>
-    <t>137,480,844</t>
-  </si>
-  <si>
     <t>3,770,272,958</t>
   </si>
   <si>
-    <t>3,815,404,120</t>
+    <t>15,146,068,340</t>
   </si>
   <si>
     <t>3,906,195,606</t>
-  </si>
-  <si>
-    <t>3,952,884,964</t>
   </si>
 </sst>
 </file>
@@ -574,7 +556,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="22" customWidth="true" style="0"/>
+    <col min="1" max="1" width="25" customWidth="true" style="0"/>
     <col min="2" max="2" width="40" customWidth="true" style="1"/>
     <col min="3" max="3" width="25" customWidth="true" style="0"/>
     <col min="4" max="4" width="25" customWidth="true" style="0"/>
@@ -628,8 +610,8 @@
       <c r="C7" t="s">
         <v>35</v>
       </c>
-      <c r="D7" t="s">
-        <v>36</v>
+      <c r="D7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -637,10 +619,10 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" t="s">
         <v>37</v>
-      </c>
-      <c r="D8" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -648,10 +630,10 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" t="s">
-        <v>40</v>
+        <v>38</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -659,10 +641,10 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D10" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -675,10 +657,10 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -686,10 +668,10 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -713,10 +695,10 @@
         <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D16" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -724,10 +706,10 @@
         <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D17" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -746,10 +728,10 @@
         <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D19" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -772,10 +754,10 @@
         <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D23" t="s">
-        <v>50</v>
+        <v>46</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -783,10 +765,10 @@
         <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>51</v>
-      </c>
-      <c r="D24" t="s">
-        <v>51</v>
+        <v>47</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -810,10 +792,10 @@
         <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>52</v>
-      </c>
-      <c r="D27" t="s">
-        <v>53</v>
+        <v>48</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -837,10 +819,10 @@
         <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D30" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -848,10 +830,10 @@
         <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D31" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -859,10 +841,10 @@
         <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D32" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/storage/laporan-posisi-keuangan-2022.xlsx
+++ b/storage/laporan-posisi-keuangan-2022.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="58">
   <si>
     <t>ASET</t>
   </si>
@@ -119,24 +119,33 @@
     <t>4,687,041</t>
   </si>
   <si>
-    <t>1,244,061</t>
+    <t>998,061</t>
   </si>
   <si>
     <t>322,013,489</t>
   </si>
   <si>
+    <t>847,742,554</t>
+  </si>
+  <si>
     <t>4,887,807,520</t>
   </si>
   <si>
-    <t>4,342,256,513</t>
+    <t>4,505,786,513</t>
   </si>
   <si>
     <t>-1,308,312,443</t>
   </si>
   <si>
+    <t>-1,435,991,763</t>
+  </si>
+  <si>
     <t>3,906,195,607</t>
   </si>
   <si>
+    <t>3,918,535,365</t>
+  </si>
+  <si>
     <t>40,478,000</t>
   </si>
   <si>
@@ -146,31 +155,40 @@
     <t>4,316,437,323</t>
   </si>
   <si>
-    <t>4,306,135,769</t>
+    <t>4,306,137,003</t>
   </si>
   <si>
     <t>-4,316,437,323</t>
   </si>
   <si>
-    <t>-4,306,135,769</t>
+    <t>-4,306,137,003</t>
   </si>
   <si>
     <t>3,075,060</t>
   </si>
   <si>
+    <t>4,527,770</t>
+  </si>
+  <si>
     <t>132,847,588</t>
   </si>
   <si>
     <t>135,922,648</t>
   </si>
   <si>
+    <t>137,375,358</t>
+  </si>
+  <si>
     <t>3,770,272,958</t>
   </si>
   <si>
-    <t>15,146,068,340</t>
+    <t>3,781,160,006</t>
   </si>
   <si>
     <t>3,906,195,606</t>
+  </si>
+  <si>
+    <t>3,918,535,364</t>
   </si>
 </sst>
 </file>
@@ -610,8 +628,8 @@
       <c r="C7" t="s">
         <v>35</v>
       </c>
-      <c r="D7">
-        <v>0</v>
+      <c r="D7" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -619,10 +637,10 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -630,10 +648,10 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
+        <v>39</v>
+      </c>
+      <c r="D9" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -641,10 +659,10 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -657,10 +675,10 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -668,10 +686,10 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D13" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -695,10 +713,10 @@
         <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D16" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -706,10 +724,10 @@
         <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D17" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -728,10 +746,10 @@
         <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D19" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -754,10 +772,10 @@
         <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
+        <v>49</v>
+      </c>
+      <c r="D23" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -765,10 +783,10 @@
         <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>47</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
+        <v>51</v>
+      </c>
+      <c r="D24" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -792,10 +810,10 @@
         <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>48</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
+        <v>52</v>
+      </c>
+      <c r="D27" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -819,10 +837,10 @@
         <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D30" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -830,10 +848,10 @@
         <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D31" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -841,10 +859,10 @@
         <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D32" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/storage/laporan-posisi-keuangan-2022.xlsx
+++ b/storage/laporan-posisi-keuangan-2022.xlsx
@@ -131,19 +131,19 @@
     <t>4,887,807,520</t>
   </si>
   <si>
-    <t>4,505,786,513</t>
+    <t>4,518,286,513</t>
   </si>
   <si>
     <t>-1,308,312,443</t>
   </si>
   <si>
-    <t>-1,435,991,763</t>
+    <t>-1,415,895,043</t>
   </si>
   <si>
     <t>3,906,195,607</t>
   </si>
   <si>
-    <t>3,918,535,365</t>
+    <t>3,951,132,085</t>
   </si>
   <si>
     <t>40,478,000</t>
@@ -182,13 +182,13 @@
     <t>3,770,272,958</t>
   </si>
   <si>
-    <t>3,781,160,006</t>
+    <t>3,780,760,006</t>
   </si>
   <si>
     <t>3,906,195,606</t>
   </si>
   <si>
-    <t>3,918,535,364</t>
+    <t>3,918,135,364</t>
   </si>
 </sst>
 </file>

--- a/storage/laporan-posisi-keuangan-2022.xlsx
+++ b/storage/laporan-posisi-keuangan-2022.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="57">
   <si>
     <t>ASET</t>
   </si>
@@ -29,7 +29,7 @@
     <t>DES 2021</t>
   </si>
   <si>
-    <t>Aug 2022</t>
+    <t>Sep 2022</t>
   </si>
   <si>
     <t>LIABILITAS DAN ASET NETO</t>
@@ -119,31 +119,31 @@
     <t>4,687,041</t>
   </si>
   <si>
-    <t>998,061</t>
+    <t>7,198,061</t>
   </si>
   <si>
     <t>322,013,489</t>
   </si>
   <si>
-    <t>847,742,554</t>
+    <t>670,013,184</t>
   </si>
   <si>
     <t>4,887,807,520</t>
   </si>
   <si>
-    <t>4,518,286,513</t>
+    <t>4,692,951,888</t>
   </si>
   <si>
     <t>-1,308,312,443</t>
   </si>
   <si>
-    <t>-1,415,895,043</t>
+    <t>-1,520,457,188</t>
   </si>
   <si>
     <t>3,906,195,607</t>
   </si>
   <si>
-    <t>3,951,132,085</t>
+    <t>3,849,705,945</t>
   </si>
   <si>
     <t>40,478,000</t>
@@ -182,13 +182,10 @@
     <t>3,770,272,958</t>
   </si>
   <si>
-    <t>3,780,760,006</t>
+    <t>3,712,330,587</t>
   </si>
   <si>
     <t>3,906,195,606</t>
-  </si>
-  <si>
-    <t>3,918,135,364</t>
   </si>
 </sst>
 </file>
@@ -862,7 +859,7 @@
         <v>56</v>
       </c>
       <c r="D32" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/storage/laporan-posisi-keuangan-2022.xlsx
+++ b/storage/laporan-posisi-keuangan-2022.xlsx
@@ -29,7 +29,7 @@
     <t>DES 2021</t>
   </si>
   <si>
-    <t>Sep 2022</t>
+    <t>September 2022</t>
   </si>
   <si>
     <t>LIABILITAS DAN ASET NETO</t>
